--- a/data/首都消费数据汇总.xlsx
+++ b/data/首都消费数据汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="整体情况-一季度加总" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>交易总笔数</t>
   </si>
   <si>
-    <t>笔均交易金额</t>
+    <t>客单价</t>
   </si>
   <si>
-    <t>店均交易金额</t>
+    <t>月均营业额</t>
   </si>
   <si>
-    <t>店均交易笔数</t>
+    <t>单店交易笔数</t>
   </si>
   <si>
     <t>交易总金额较2023年同比增长率</t>
@@ -69,22 +69,22 @@
     <t>交易总笔数较2019年同比增长率</t>
   </si>
   <si>
-    <t>笔均交易金额较2023年同比增长率</t>
+    <t>客单价较2023年同比增长率</t>
   </si>
   <si>
-    <t>笔均交易金额较2019年同比增长率</t>
+    <t>客单价较2019年同比增长率</t>
   </si>
   <si>
-    <t>店均交易金额较2023年同比增长率</t>
+    <t>月均营业额较2023年同比增长率</t>
   </si>
   <si>
-    <t>店均交易金额较2019年同比增长率</t>
+    <t>月均营业额较2019年同比增长率</t>
   </si>
   <si>
-    <t>店均交易笔数较2023年同比增长率</t>
+    <t>单店交易笔数较2023年同比增长率</t>
   </si>
   <si>
-    <t>店均交易笔数较2019年同比增长率</t>
+    <t>单店交易笔数较2019年同比增长率</t>
   </si>
   <si>
     <t>月</t>
@@ -2765,7 +2765,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -10606,8 +10606,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -13467,8 +13467,8 @@
   <sheetPr/>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/data/首都消费数据汇总.xlsx
+++ b/data/首都消费数据汇总.xlsx
@@ -20,6 +20,7 @@
     <sheet name="城市互动-北京人在外地消费" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'分城区-一级分类'!$A$1:$J$111</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'整体行业分析-二级行业'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5124" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="559">
   <si>
     <t>交易总金额</t>
   </si>
@@ -13465,25 +13466,26 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="16" customWidth="1"/>
-    <col min="3" max="4" width="14.1111111111111" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" style="16" customWidth="1"/>
-    <col min="8" max="9" width="34.4444444444444" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="16"/>
+    <col min="1" max="1" width="19.7777777777778" style="16" customWidth="1"/>
+    <col min="2" max="3" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.8888888888889" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.8888888888889" style="16" customWidth="1"/>
+    <col min="6" max="6" width="14.1111111111111" style="16" customWidth="1"/>
+    <col min="7" max="8" width="34.4444444444444" style="16" customWidth="1"/>
+    <col min="9" max="9" width="29.1111111111111" style="16" customWidth="1"/>
+    <col min="10" max="10" width="31.6666666666667" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.88888888888889" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" spans="1:9">
+    <row r="1" s="16" customFormat="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
@@ -13511,8 +13513,11 @@
       <c r="I1" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="16" customFormat="1" spans="1:9">
+      <c r="J1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" s="16" customFormat="1" spans="1:10">
       <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
@@ -13540,8 +13545,11 @@
       <c r="I2" s="16">
         <v>-0.108630573705779</v>
       </c>
-    </row>
-    <row r="3" s="16" customFormat="1" spans="1:9">
+      <c r="J2" s="16">
+        <v>0.280701389943757</v>
+      </c>
+    </row>
+    <row r="3" s="16" customFormat="1" spans="1:10">
       <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
@@ -13569,8 +13577,11 @@
       <c r="I3" s="16">
         <v>-0.0477439284548289</v>
       </c>
-    </row>
-    <row r="4" s="16" customFormat="1" spans="1:9">
+      <c r="J3" s="16">
+        <v>0.39210734455796</v>
+      </c>
+    </row>
+    <row r="4" s="16" customFormat="1" spans="1:10">
       <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
@@ -13598,8 +13609,11 @@
       <c r="I4" s="16">
         <v>0.330323966845489</v>
       </c>
-    </row>
-    <row r="5" s="16" customFormat="1" spans="1:9">
+      <c r="J4" s="16">
+        <v>0.468194415096842</v>
+      </c>
+    </row>
+    <row r="5" s="16" customFormat="1" spans="1:10">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -13627,8 +13641,11 @@
       <c r="I5" s="16">
         <v>-0.380550781034122</v>
       </c>
-    </row>
-    <row r="6" s="16" customFormat="1" spans="1:9">
+      <c r="J5" s="16">
+        <v>0.297560477767556</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" spans="1:10">
       <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
@@ -13656,8 +13673,11 @@
       <c r="I6" s="16">
         <v>-0.131584190684843</v>
       </c>
-    </row>
-    <row r="7" s="16" customFormat="1" spans="1:9">
+      <c r="J6" s="16">
+        <v>-0.237114439488385</v>
+      </c>
+    </row>
+    <row r="7" s="16" customFormat="1" spans="1:10">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -13685,8 +13705,11 @@
       <c r="I7" s="16">
         <v>0.664797691971333</v>
       </c>
-    </row>
-    <row r="8" s="16" customFormat="1" spans="1:9">
+      <c r="J7" s="16">
+        <v>0.546639381206418</v>
+      </c>
+    </row>
+    <row r="8" s="16" customFormat="1" spans="1:10">
       <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
@@ -13714,8 +13737,11 @@
       <c r="I8" s="16">
         <v>-0.628070245710974</v>
       </c>
-    </row>
-    <row r="9" s="16" customFormat="1" spans="1:9">
+      <c r="J8" s="16">
+        <v>0.0841592099468229</v>
+      </c>
+    </row>
+    <row r="9" s="16" customFormat="1" spans="1:10">
       <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
@@ -13743,8 +13769,11 @@
       <c r="I9" s="16">
         <v>-0.131833613448798</v>
       </c>
-    </row>
-    <row r="10" s="16" customFormat="1" spans="1:9">
+      <c r="J9" s="16">
+        <v>0.121309306171138</v>
+      </c>
+    </row>
+    <row r="10" s="16" customFormat="1" spans="1:10">
       <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
@@ -13772,8 +13801,11 @@
       <c r="I10" s="16">
         <v>-0.0522898031451038</v>
       </c>
-    </row>
-    <row r="11" s="16" customFormat="1" spans="1:9">
+      <c r="J10" s="16">
+        <v>0.232088538147286</v>
+      </c>
+    </row>
+    <row r="11" s="16" customFormat="1" spans="1:10">
       <c r="A11" s="16" t="s">
         <v>22</v>
       </c>
@@ -13801,8 +13833,11 @@
       <c r="I11" s="16">
         <v>0.279091922384794</v>
       </c>
-    </row>
-    <row r="12" s="16" customFormat="1" spans="1:9">
+      <c r="J11" s="16">
+        <v>0.0229070973189486</v>
+      </c>
+    </row>
+    <row r="12" s="16" customFormat="1" spans="1:10">
       <c r="A12" s="16" t="s">
         <v>22</v>
       </c>
@@ -13830,8 +13865,11 @@
       <c r="I12" s="16">
         <v>-0.517649254385862</v>
       </c>
-    </row>
-    <row r="13" s="16" customFormat="1" spans="1:9">
+      <c r="J12" s="16">
+        <v>-0.0596405501094156</v>
+      </c>
+    </row>
+    <row r="13" s="16" customFormat="1" spans="1:10">
       <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
@@ -13859,8 +13897,11 @@
       <c r="I13" s="16">
         <v>0.0432754215363192</v>
       </c>
-    </row>
-    <row r="14" s="16" customFormat="1" spans="1:9">
+      <c r="J13" s="16">
+        <v>0.219677396378829</v>
+      </c>
+    </row>
+    <row r="14" s="16" customFormat="1" spans="1:10">
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
@@ -13888,8 +13929,11 @@
       <c r="I14" s="16">
         <v>-0.141076479368338</v>
       </c>
-    </row>
-    <row r="15" s="16" customFormat="1" spans="1:9">
+      <c r="J14" s="16">
+        <v>0.0326683215153678</v>
+      </c>
+    </row>
+    <row r="15" s="16" customFormat="1" spans="1:10">
       <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
@@ -13917,8 +13961,11 @@
       <c r="I15" s="16">
         <v>0.00844301961000911</v>
       </c>
-    </row>
-    <row r="16" s="16" customFormat="1" spans="1:9">
+      <c r="J15" s="16">
+        <v>-0.116821546188473</v>
+      </c>
+    </row>
+    <row r="16" s="16" customFormat="1" spans="1:10">
       <c r="A16" s="16" t="s">
         <v>27</v>
       </c>
@@ -13946,8 +13993,11 @@
       <c r="I16" s="16">
         <v>-0.164453178652125</v>
       </c>
-    </row>
-    <row r="17" s="16" customFormat="1" spans="1:9">
+      <c r="J16" s="16">
+        <v>0.280201999934544</v>
+      </c>
+    </row>
+    <row r="17" s="16" customFormat="1" spans="1:10">
       <c r="A17" s="16" t="s">
         <v>27</v>
       </c>
@@ -13975,8 +14025,11 @@
       <c r="I17" s="16">
         <v>-0.14872226966547</v>
       </c>
-    </row>
-    <row r="18" s="16" customFormat="1" spans="1:9">
+      <c r="J17" s="16">
+        <v>0.125065181132559</v>
+      </c>
+    </row>
+    <row r="18" s="16" customFormat="1" spans="1:10">
       <c r="A18" s="16" t="s">
         <v>27</v>
       </c>
@@ -14004,8 +14057,11 @@
       <c r="I18" s="16">
         <v>0.245328326868611</v>
       </c>
-    </row>
-    <row r="19" s="16" customFormat="1" spans="1:9">
+      <c r="J18" s="16">
+        <v>0.276954562307452</v>
+      </c>
+    </row>
+    <row r="19" s="16" customFormat="1" spans="1:10">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
@@ -14033,8 +14089,11 @@
       <c r="I19" s="16">
         <v>-0.300158397352914</v>
       </c>
-    </row>
-    <row r="20" s="16" customFormat="1" spans="1:9">
+      <c r="J19" s="16">
+        <v>0.438957574302213</v>
+      </c>
+    </row>
+    <row r="20" s="16" customFormat="1" spans="1:10">
       <c r="A20" s="16" t="s">
         <v>27</v>
       </c>
@@ -14062,8 +14121,11 @@
       <c r="I20" s="16">
         <v>-0.325885110208471</v>
       </c>
-    </row>
-    <row r="21" s="16" customFormat="1" spans="1:9">
+      <c r="J20" s="16">
+        <v>-0.114655200088231</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="1" spans="1:10">
       <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
@@ -14091,8 +14153,11 @@
       <c r="I21" s="16">
         <v>0.00941524227327219</v>
       </c>
-    </row>
-    <row r="22" s="16" customFormat="1" spans="1:9">
+      <c r="J21" s="16">
+        <v>-0.130691944353472</v>
+      </c>
+    </row>
+    <row r="22" s="16" customFormat="1" spans="1:10">
       <c r="A22" s="16" t="s">
         <v>27</v>
       </c>
@@ -14120,8 +14185,11 @@
       <c r="I22" s="16">
         <v>-0.211667870869062</v>
       </c>
-    </row>
-    <row r="23" s="16" customFormat="1" spans="1:9">
+      <c r="J22" s="16">
+        <v>-0.0728165135048891</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" spans="1:10">
       <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
@@ -14149,8 +14217,11 @@
       <c r="I23" s="16">
         <v>-0.463451507309348</v>
       </c>
-    </row>
-    <row r="24" s="16" customFormat="1" spans="1:9">
+      <c r="J23" s="16">
+        <v>0.598332268010679</v>
+      </c>
+    </row>
+    <row r="24" s="16" customFormat="1" spans="1:10">
       <c r="A24" s="16" t="s">
         <v>34</v>
       </c>
@@ -14178,8 +14249,11 @@
       <c r="I24" s="16">
         <v>0.670664423641305</v>
       </c>
-    </row>
-    <row r="25" s="16" customFormat="1" spans="1:9">
+      <c r="J24" s="16">
+        <v>0.0310711605405383</v>
+      </c>
+    </row>
+    <row r="25" s="16" customFormat="1" spans="1:10">
       <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
@@ -14207,8 +14281,11 @@
       <c r="I25" s="16">
         <v>-0.441120205396856</v>
       </c>
-    </row>
-    <row r="26" s="16" customFormat="1" spans="1:9">
+      <c r="J25" s="16">
+        <v>-0.00334308297485988</v>
+      </c>
+    </row>
+    <row r="26" s="16" customFormat="1" spans="1:10">
       <c r="A26" s="16" t="s">
         <v>34</v>
       </c>
@@ -14236,8 +14313,11 @@
       <c r="I26" s="16">
         <v>-0.389895696798193</v>
       </c>
-    </row>
-    <row r="27" s="16" customFormat="1" spans="1:9">
+      <c r="J26" s="16">
+        <v>-0.408417962559593</v>
+      </c>
+    </row>
+    <row r="27" s="16" customFormat="1" spans="1:10">
       <c r="A27" s="16" t="s">
         <v>34</v>
       </c>
@@ -14265,8 +14345,11 @@
       <c r="I27" s="16">
         <v>-0.122499204649014</v>
       </c>
-    </row>
-    <row r="28" s="16" customFormat="1" spans="1:9">
+      <c r="J27" s="16">
+        <v>0.822321921315517</v>
+      </c>
+    </row>
+    <row r="28" s="16" customFormat="1" spans="1:10">
       <c r="A28" s="16" t="s">
         <v>34</v>
       </c>
@@ -14294,8 +14377,11 @@
       <c r="I28" s="16">
         <v>-0.257466900403887</v>
       </c>
-    </row>
-    <row r="29" s="16" customFormat="1" spans="1:9">
+      <c r="J28" s="16">
+        <v>-0.651436394074596</v>
+      </c>
+    </row>
+    <row r="29" s="16" customFormat="1" spans="1:10">
       <c r="A29" s="16" t="s">
         <v>34</v>
       </c>
@@ -14323,8 +14409,11 @@
       <c r="I29" s="16">
         <v>-0.880082168774768</v>
       </c>
-    </row>
-    <row r="30" s="16" customFormat="1" spans="1:9">
+      <c r="J29" s="16">
+        <v>-0.83525739178499</v>
+      </c>
+    </row>
+    <row r="30" s="16" customFormat="1" spans="1:10">
       <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
@@ -14352,8 +14441,11 @@
       <c r="I30" s="16">
         <v>-0.376590249860521</v>
       </c>
-    </row>
-    <row r="31" s="16" customFormat="1" spans="1:9">
+      <c r="J30" s="16">
+        <v>-0.0367189153904344</v>
+      </c>
+    </row>
+    <row r="31" s="16" customFormat="1" spans="1:10">
       <c r="A31" s="16" t="s">
         <v>32</v>
       </c>
@@ -14381,8 +14473,11 @@
       <c r="I31" s="16">
         <v>-0.901502345280197</v>
       </c>
-    </row>
-    <row r="32" s="16" customFormat="1" spans="1:9">
+      <c r="J31" s="16">
+        <v>2.24002070127608</v>
+      </c>
+    </row>
+    <row r="32" s="16" customFormat="1" spans="1:10">
       <c r="A32" s="16" t="s">
         <v>32</v>
       </c>
@@ -14410,8 +14505,11 @@
       <c r="I32" s="16">
         <v>-0.53569730603862</v>
       </c>
-    </row>
-    <row r="33" s="16" customFormat="1" spans="1:9">
+      <c r="J32" s="16">
+        <v>-0.137548791528894</v>
+      </c>
+    </row>
+    <row r="33" s="16" customFormat="1" spans="1:10">
       <c r="A33" s="16" t="s">
         <v>32</v>
       </c>
@@ -14439,8 +14537,11 @@
       <c r="I33" s="16">
         <v>0.0765830571194092</v>
       </c>
-    </row>
-    <row r="34" s="16" customFormat="1" spans="1:9">
+      <c r="J33" s="16">
+        <v>-0.113263044384105</v>
+      </c>
+    </row>
+    <row r="34" s="16" customFormat="1" spans="1:10">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
@@ -14468,8 +14569,11 @@
       <c r="I34" s="16">
         <v>0.551014170982125</v>
       </c>
-    </row>
-    <row r="35" s="16" customFormat="1" spans="1:9">
+      <c r="J34" s="16">
+        <v>0.47192501585381</v>
+      </c>
+    </row>
+    <row r="35" s="16" customFormat="1" spans="1:10">
       <c r="A35" s="16" t="s">
         <v>32</v>
       </c>
@@ -14497,8 +14601,11 @@
       <c r="I35" s="16">
         <v>0.914455734843675</v>
       </c>
-    </row>
-    <row r="36" s="16" customFormat="1" spans="1:9">
+      <c r="J35" s="16">
+        <v>-0.166852640101665</v>
+      </c>
+    </row>
+    <row r="36" s="16" customFormat="1" spans="1:10">
       <c r="A36" s="16" t="s">
         <v>32</v>
       </c>
@@ -14526,8 +14633,11 @@
       <c r="I36" s="16">
         <v>0.150171631226128</v>
       </c>
-    </row>
-    <row r="37" s="16" customFormat="1" spans="1:9">
+      <c r="J36" s="16">
+        <v>-0.897109247046863</v>
+      </c>
+    </row>
+    <row r="37" s="16" customFormat="1" spans="1:10">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
@@ -14555,8 +14665,11 @@
       <c r="I37" s="16">
         <v>-0.63403470582315</v>
       </c>
-    </row>
-    <row r="38" s="16" customFormat="1" spans="1:9">
+      <c r="J37" s="16">
+        <v>0.117898095124253</v>
+      </c>
+    </row>
+    <row r="38" s="16" customFormat="1" spans="1:10">
       <c r="A38" s="16" t="s">
         <v>35</v>
       </c>
@@ -14584,8 +14697,11 @@
       <c r="I38" s="16">
         <v>0.507575058828637</v>
       </c>
-    </row>
-    <row r="39" s="16" customFormat="1" spans="1:9">
+      <c r="J38" s="16">
+        <v>2.93573107938454</v>
+      </c>
+    </row>
+    <row r="39" s="16" customFormat="1" spans="1:10">
       <c r="A39" s="16" t="s">
         <v>35</v>
       </c>
@@ -14613,8 +14729,11 @@
       <c r="I39" s="16">
         <v>-0.150173879859124</v>
       </c>
-    </row>
-    <row r="40" s="16" customFormat="1" spans="1:9">
+      <c r="J39" s="16">
+        <v>-0.0539792961072825</v>
+      </c>
+    </row>
+    <row r="40" s="16" customFormat="1" spans="1:10">
       <c r="A40" s="16" t="s">
         <v>35</v>
       </c>
@@ -14642,8 +14761,11 @@
       <c r="I40" s="16">
         <v>2.62532206136577</v>
       </c>
-    </row>
-    <row r="41" s="16" customFormat="1" spans="1:9">
+      <c r="J40" s="16">
+        <v>0.0229880178062089</v>
+      </c>
+    </row>
+    <row r="41" s="16" customFormat="1" spans="1:10">
       <c r="A41" s="16" t="s">
         <v>35</v>
       </c>
@@ -14671,8 +14793,11 @@
       <c r="I41" s="16">
         <v>1.83720055077094</v>
       </c>
-    </row>
-    <row r="42" s="16" customFormat="1" spans="1:9">
+      <c r="J41" s="16">
+        <v>19.009730200174</v>
+      </c>
+    </row>
+    <row r="42" s="16" customFormat="1" spans="1:10">
       <c r="A42" s="16" t="s">
         <v>35</v>
       </c>
@@ -14700,8 +14825,11 @@
       <c r="I42" s="16">
         <v>0.117323695412089</v>
       </c>
-    </row>
-    <row r="43" s="16" customFormat="1" spans="1:9">
+      <c r="J42" s="16">
+        <v>-0.815699184261923</v>
+      </c>
+    </row>
+    <row r="43" s="16" customFormat="1" spans="1:10">
       <c r="A43" s="16" t="s">
         <v>33</v>
       </c>
@@ -14729,8 +14857,11 @@
       <c r="I43" s="16">
         <v>1.15843662600858</v>
       </c>
-    </row>
-    <row r="44" s="16" customFormat="1" spans="1:9">
+      <c r="J43" s="16">
+        <v>2.67812690736331</v>
+      </c>
+    </row>
+    <row r="44" s="16" customFormat="1" spans="1:10">
       <c r="A44" s="16" t="s">
         <v>33</v>
       </c>
@@ -14758,8 +14889,11 @@
       <c r="I44" s="16">
         <v>-0.597861819087123</v>
       </c>
-    </row>
-    <row r="45" s="16" customFormat="1" spans="1:9">
+      <c r="J44" s="16">
+        <v>0.397018176497664</v>
+      </c>
+    </row>
+    <row r="45" s="16" customFormat="1" spans="1:10">
       <c r="A45" s="16" t="s">
         <v>33</v>
       </c>
@@ -14787,8 +14921,11 @@
       <c r="I45" s="16">
         <v>-0.059217704795182</v>
       </c>
-    </row>
-    <row r="46" s="16" customFormat="1" spans="1:9">
+      <c r="J45" s="16">
+        <v>0.380841934095626</v>
+      </c>
+    </row>
+    <row r="46" s="16" customFormat="1" spans="1:10">
       <c r="A46" s="16" t="s">
         <v>33</v>
       </c>
@@ -14816,8 +14953,11 @@
       <c r="I46" s="16">
         <v>0.549287220694355</v>
       </c>
-    </row>
-    <row r="47" s="16" customFormat="1" spans="1:9">
+      <c r="J46" s="16">
+        <v>0.424063367030435</v>
+      </c>
+    </row>
+    <row r="47" s="16" customFormat="1" spans="1:10">
       <c r="A47" s="16" t="s">
         <v>33</v>
       </c>
@@ -14845,8 +14985,11 @@
       <c r="I47" s="16">
         <v>1.60257824110208</v>
       </c>
-    </row>
-    <row r="48" s="16" customFormat="1" spans="1:9">
+      <c r="J47" s="16">
+        <v>-0.24448643257424</v>
+      </c>
+    </row>
+    <row r="48" s="16" customFormat="1" spans="1:10">
       <c r="A48" s="16" t="s">
         <v>33</v>
       </c>
@@ -14874,8 +15017,11 @@
       <c r="I48" s="16">
         <v>0.189808638517431</v>
       </c>
-    </row>
-    <row r="49" s="16" customFormat="1" spans="1:9">
+      <c r="J48" s="16">
+        <v>0.438230222383707</v>
+      </c>
+    </row>
+    <row r="49" s="16" customFormat="1" spans="1:10">
       <c r="A49" s="16" t="s">
         <v>30</v>
       </c>
@@ -14903,8 +15049,11 @@
       <c r="I49" s="16">
         <v>-0.101578922256561</v>
       </c>
-    </row>
-    <row r="50" s="16" customFormat="1" spans="1:9">
+      <c r="J49" s="16">
+        <v>-0.0170996874734617</v>
+      </c>
+    </row>
+    <row r="50" s="16" customFormat="1" spans="1:10">
       <c r="A50" s="16" t="s">
         <v>30</v>
       </c>
@@ -14932,8 +15081,11 @@
       <c r="I50" s="16">
         <v>-0.234130387641224</v>
       </c>
-    </row>
-    <row r="51" s="16" customFormat="1" spans="1:9">
+      <c r="J50" s="16">
+        <v>0.107821652952452</v>
+      </c>
+    </row>
+    <row r="51" s="16" customFormat="1" spans="1:10">
       <c r="A51" s="16" t="s">
         <v>30</v>
       </c>
@@ -14961,8 +15113,11 @@
       <c r="I51" s="16">
         <v>-0.156762748789895</v>
       </c>
-    </row>
-    <row r="52" s="16" customFormat="1" spans="1:9">
+      <c r="J51" s="16">
+        <v>0.117829566706513</v>
+      </c>
+    </row>
+    <row r="52" s="16" customFormat="1" spans="1:10">
       <c r="A52" s="16" t="s">
         <v>30</v>
       </c>
@@ -14990,8 +15145,11 @@
       <c r="I52" s="16">
         <v>-0.198263903697543</v>
       </c>
-    </row>
-    <row r="53" s="16" customFormat="1" spans="1:9">
+      <c r="J52" s="16">
+        <v>0.0764475360106737</v>
+      </c>
+    </row>
+    <row r="53" s="16" customFormat="1" spans="1:10">
       <c r="A53" s="16" t="s">
         <v>30</v>
       </c>
@@ -15019,8 +15177,11 @@
       <c r="I53" s="16">
         <v>0.140041639225697</v>
       </c>
-    </row>
-    <row r="54" s="16" customFormat="1" spans="1:9">
+      <c r="J53" s="16">
+        <v>0.495050464031174</v>
+      </c>
+    </row>
+    <row r="54" s="16" customFormat="1" spans="1:10">
       <c r="A54" s="16" t="s">
         <v>30</v>
       </c>
@@ -15048,8 +15209,11 @@
       <c r="I54" s="16">
         <v>-0.20941857533408</v>
       </c>
-    </row>
-    <row r="55" s="16" customFormat="1" spans="1:9">
+      <c r="J54" s="16">
+        <v>-0.0574093892532482</v>
+      </c>
+    </row>
+    <row r="55" s="16" customFormat="1" spans="1:10">
       <c r="A55" s="16" t="s">
         <v>30</v>
       </c>
@@ -15077,8 +15241,11 @@
       <c r="I55" s="16">
         <v>-0.0707338788494148</v>
       </c>
-    </row>
-    <row r="56" s="16" customFormat="1" spans="1:9">
+      <c r="J55" s="16">
+        <v>-0.112118200034258</v>
+      </c>
+    </row>
+    <row r="56" s="16" customFormat="1" spans="1:10">
       <c r="A56" s="16" t="s">
         <v>25</v>
       </c>
@@ -15106,8 +15273,11 @@
       <c r="I56" s="16">
         <v>-0.204347733124492</v>
       </c>
-    </row>
-    <row r="57" s="16" customFormat="1" spans="1:9">
+      <c r="J56" s="16">
+        <v>0.386775230917214</v>
+      </c>
+    </row>
+    <row r="57" s="16" customFormat="1" spans="1:10">
       <c r="A57" s="16" t="s">
         <v>25</v>
       </c>
@@ -15135,8 +15305,11 @@
       <c r="I57" s="16">
         <v>-0.0511650792500445</v>
       </c>
-    </row>
-    <row r="58" s="16" customFormat="1" spans="1:9">
+      <c r="J57" s="16">
+        <v>0.218139025181005</v>
+      </c>
+    </row>
+    <row r="58" s="16" customFormat="1" spans="1:10">
       <c r="A58" s="16" t="s">
         <v>25</v>
       </c>
@@ -15164,8 +15337,11 @@
       <c r="I58" s="16">
         <v>-0.124155205472998</v>
       </c>
-    </row>
-    <row r="59" s="16" customFormat="1" spans="1:9">
+      <c r="J58" s="16">
+        <v>0.294329130715913</v>
+      </c>
+    </row>
+    <row r="59" s="16" customFormat="1" spans="1:10">
       <c r="A59" s="16" t="s">
         <v>25</v>
       </c>
@@ -15193,8 +15369,11 @@
       <c r="I59" s="16">
         <v>-0.337319362638478</v>
       </c>
-    </row>
-    <row r="60" s="16" customFormat="1" spans="1:9">
+      <c r="J59" s="16">
+        <v>0.134339768452608</v>
+      </c>
+    </row>
+    <row r="60" s="16" customFormat="1" spans="1:10">
       <c r="A60" s="16" t="s">
         <v>25</v>
       </c>
@@ -15222,8 +15401,11 @@
       <c r="I60" s="16">
         <v>-0.370391604989843</v>
       </c>
-    </row>
-    <row r="61" s="16" customFormat="1" spans="1:9">
+      <c r="J60" s="16">
+        <v>0.0475541778876617</v>
+      </c>
+    </row>
+    <row r="61" s="16" customFormat="1" spans="1:10">
       <c r="A61" s="16" t="s">
         <v>25</v>
       </c>
@@ -15251,8 +15433,11 @@
       <c r="I61" s="16">
         <v>-0.0089506059089646</v>
       </c>
-    </row>
-    <row r="62" s="16" customFormat="1" spans="1:9">
+      <c r="J61" s="16">
+        <v>-0.0305812566868507</v>
+      </c>
+    </row>
+    <row r="62" s="16" customFormat="1" spans="1:10">
       <c r="A62" s="16" t="s">
         <v>25</v>
       </c>
@@ -15280,8 +15465,11 @@
       <c r="I62" s="16">
         <v>-0.129308165664943</v>
       </c>
-    </row>
-    <row r="63" s="16" customFormat="1" spans="1:9">
+      <c r="J62" s="16">
+        <v>0.254068949819267</v>
+      </c>
+    </row>
+    <row r="63" s="16" customFormat="1" spans="1:10">
       <c r="A63" s="16" t="s">
         <v>20</v>
       </c>
@@ -15309,8 +15497,11 @@
       <c r="I63" s="16">
         <v>-0.163006973409724</v>
       </c>
-    </row>
-    <row r="64" s="16" customFormat="1" spans="1:9">
+      <c r="J63" s="16">
+        <v>0.211919195501878</v>
+      </c>
+    </row>
+    <row r="64" s="16" customFormat="1" spans="1:10">
       <c r="A64" s="16" t="s">
         <v>20</v>
       </c>
@@ -15338,8 +15529,11 @@
       <c r="I64" s="16">
         <v>-0.0840850111939159</v>
       </c>
-    </row>
-    <row r="65" s="16" customFormat="1" spans="1:9">
+      <c r="J64" s="16">
+        <v>0.169833861221878</v>
+      </c>
+    </row>
+    <row r="65" s="16" customFormat="1" spans="1:10">
       <c r="A65" s="16" t="s">
         <v>20</v>
       </c>
@@ -15367,8 +15561,11 @@
       <c r="I65" s="16">
         <v>-0.209085692553324</v>
       </c>
-    </row>
-    <row r="66" s="16" customFormat="1" spans="1:9">
+      <c r="J65" s="16">
+        <v>0.0716151221328419</v>
+      </c>
+    </row>
+    <row r="66" s="16" customFormat="1" spans="1:10">
       <c r="A66" s="16" t="s">
         <v>20</v>
       </c>
@@ -15396,8 +15593,11 @@
       <c r="I66" s="16">
         <v>-0.217934176127288</v>
       </c>
-    </row>
-    <row r="67" s="16" customFormat="1" spans="1:9">
+      <c r="J66" s="16">
+        <v>0.020390639653268</v>
+      </c>
+    </row>
+    <row r="67" s="16" customFormat="1" spans="1:10">
       <c r="A67" s="16" t="s">
         <v>20</v>
       </c>
@@ -15425,8 +15625,11 @@
       <c r="I67" s="16">
         <v>0.0392919356427819</v>
       </c>
-    </row>
-    <row r="68" s="16" customFormat="1" spans="1:9">
+      <c r="J67" s="16">
+        <v>0.14623236385378</v>
+      </c>
+    </row>
+    <row r="68" s="16" customFormat="1" spans="1:10">
       <c r="A68" s="16" t="s">
         <v>20</v>
       </c>
@@ -15454,8 +15657,11 @@
       <c r="I68" s="16">
         <v>-0.0439993388258071</v>
       </c>
-    </row>
-    <row r="69" s="16" customFormat="1" spans="1:9">
+      <c r="J68" s="16">
+        <v>-0.013520561728828</v>
+      </c>
+    </row>
+    <row r="69" s="16" customFormat="1" spans="1:10">
       <c r="A69" s="16" t="s">
         <v>20</v>
       </c>
@@ -15483,8 +15689,11 @@
       <c r="I69" s="16">
         <v>-0.0430378600063435</v>
       </c>
-    </row>
-    <row r="70" s="16" customFormat="1" spans="1:9">
+      <c r="J69" s="16">
+        <v>-0.38166605002908</v>
+      </c>
+    </row>
+    <row r="70" s="16" customFormat="1" spans="1:10">
       <c r="A70" s="16" t="s">
         <v>21</v>
       </c>
@@ -15512,8 +15721,11 @@
       <c r="I70" s="16">
         <v>-0.0590351376632737</v>
       </c>
-    </row>
-    <row r="71" s="16" customFormat="1" spans="1:9">
+      <c r="J70" s="16">
+        <v>0.262971250144578</v>
+      </c>
+    </row>
+    <row r="71" s="16" customFormat="1" spans="1:10">
       <c r="A71" s="16" t="s">
         <v>21</v>
       </c>
@@ -15541,8 +15753,11 @@
       <c r="I71" s="16">
         <v>-0.131492037000955</v>
       </c>
-    </row>
-    <row r="72" s="16" customFormat="1" spans="1:9">
+      <c r="J71" s="16">
+        <v>0.163885452729249</v>
+      </c>
+    </row>
+    <row r="72" s="16" customFormat="1" spans="1:10">
       <c r="A72" s="16" t="s">
         <v>21</v>
       </c>
@@ -15570,8 +15785,11 @@
       <c r="I72" s="16">
         <v>0.202997515442862</v>
       </c>
-    </row>
-    <row r="73" s="16" customFormat="1" spans="1:9">
+      <c r="J72" s="16">
+        <v>0.197668833423973</v>
+      </c>
+    </row>
+    <row r="73" s="16" customFormat="1" spans="1:10">
       <c r="A73" s="16" t="s">
         <v>21</v>
       </c>
@@ -15599,8 +15817,11 @@
       <c r="I73" s="16">
         <v>-0.14843332646782</v>
       </c>
-    </row>
-    <row r="74" s="16" customFormat="1" spans="1:9">
+      <c r="J73" s="16">
+        <v>0.121498014111022</v>
+      </c>
+    </row>
+    <row r="74" s="16" customFormat="1" spans="1:10">
       <c r="A74" s="16" t="s">
         <v>21</v>
       </c>
@@ -15628,8 +15849,11 @@
       <c r="I74" s="16">
         <v>0.00569846370447542</v>
       </c>
-    </row>
-    <row r="75" s="16" customFormat="1" spans="1:9">
+      <c r="J74" s="16">
+        <v>-0.0575765670382013</v>
+      </c>
+    </row>
+    <row r="75" s="16" customFormat="1" spans="1:10">
       <c r="A75" s="16" t="s">
         <v>21</v>
       </c>
@@ -15657,8 +15881,11 @@
       <c r="I75" s="16">
         <v>-0.0297506471018263</v>
       </c>
-    </row>
-    <row r="76" s="16" customFormat="1" spans="1:9">
+      <c r="J75" s="16">
+        <v>0.342144996456146</v>
+      </c>
+    </row>
+    <row r="76" s="16" customFormat="1" spans="1:10">
       <c r="A76" s="16" t="s">
         <v>21</v>
       </c>
@@ -15686,8 +15913,11 @@
       <c r="I76" s="16">
         <v>-0.115829757499258</v>
       </c>
-    </row>
-    <row r="77" s="16" customFormat="1" spans="1:9">
+      <c r="J76" s="16">
+        <v>-0.08569805085003</v>
+      </c>
+    </row>
+    <row r="77" s="16" customFormat="1" spans="1:10">
       <c r="A77" s="16" t="s">
         <v>29</v>
       </c>
@@ -15715,8 +15945,11 @@
       <c r="I77" s="16">
         <v>-0.228627332651387</v>
       </c>
-    </row>
-    <row r="78" s="16" customFormat="1" spans="1:9">
+      <c r="J77" s="16">
+        <v>0.32041619618804</v>
+      </c>
+    </row>
+    <row r="78" s="16" customFormat="1" spans="1:10">
       <c r="A78" s="16" t="s">
         <v>29</v>
       </c>
@@ -15744,8 +15977,11 @@
       <c r="I78" s="16">
         <v>-0.0749684320796108</v>
       </c>
-    </row>
-    <row r="79" s="16" customFormat="1" spans="1:9">
+      <c r="J78" s="16">
+        <v>0.165629277595776</v>
+      </c>
+    </row>
+    <row r="79" s="16" customFormat="1" spans="1:10">
       <c r="A79" s="16" t="s">
         <v>29</v>
       </c>
@@ -15773,8 +16009,11 @@
       <c r="I79" s="16">
         <v>0.0693669438840308</v>
       </c>
-    </row>
-    <row r="80" s="16" customFormat="1" spans="1:9">
+      <c r="J79" s="16">
+        <v>0.27478325457194</v>
+      </c>
+    </row>
+    <row r="80" s="16" customFormat="1" spans="1:10">
       <c r="A80" s="16" t="s">
         <v>29</v>
       </c>
@@ -15802,8 +16041,11 @@
       <c r="I80" s="16">
         <v>-0.368121978454156</v>
       </c>
-    </row>
-    <row r="81" s="16" customFormat="1" spans="1:9">
+      <c r="J80" s="16">
+        <v>-0.209778598445461</v>
+      </c>
+    </row>
+    <row r="81" s="16" customFormat="1" spans="1:10">
       <c r="A81" s="16" t="s">
         <v>29</v>
       </c>
@@ -15831,8 +16073,11 @@
       <c r="I81" s="16">
         <v>-0.205200284567278</v>
       </c>
-    </row>
-    <row r="82" s="16" customFormat="1" spans="1:9">
+      <c r="J81" s="16">
+        <v>0.355717188910977</v>
+      </c>
+    </row>
+    <row r="82" s="16" customFormat="1" spans="1:10">
       <c r="A82" s="16" t="s">
         <v>29</v>
       </c>
@@ -15860,8 +16105,11 @@
       <c r="I82" s="16">
         <v>-0.202286393557239</v>
       </c>
-    </row>
-    <row r="83" s="16" customFormat="1" spans="1:9">
+      <c r="J82" s="16">
+        <v>-0.233075339770819</v>
+      </c>
+    </row>
+    <row r="83" s="16" customFormat="1" spans="1:10">
       <c r="A83" s="16" t="s">
         <v>29</v>
       </c>
@@ -15889,8 +16137,11 @@
       <c r="I83" s="16">
         <v>-0.261446616575384</v>
       </c>
-    </row>
-    <row r="84" s="16" customFormat="1" spans="1:9">
+      <c r="J83" s="16">
+        <v>-0.062670486283463</v>
+      </c>
+    </row>
+    <row r="84" s="16" customFormat="1" spans="1:10">
       <c r="A84" s="16" t="s">
         <v>24</v>
       </c>
@@ -15918,8 +16169,11 @@
       <c r="I84" s="16">
         <v>-0.174814839201267</v>
       </c>
-    </row>
-    <row r="85" s="16" customFormat="1" spans="1:9">
+      <c r="J84" s="16">
+        <v>0.373640630263249</v>
+      </c>
+    </row>
+    <row r="85" s="16" customFormat="1" spans="1:10">
       <c r="A85" s="16" t="s">
         <v>24</v>
       </c>
@@ -15947,8 +16201,11 @@
       <c r="I85" s="16">
         <v>-0.126544572616677</v>
       </c>
-    </row>
-    <row r="86" s="16" customFormat="1" spans="1:9">
+      <c r="J85" s="16">
+        <v>0.451440358115658</v>
+      </c>
+    </row>
+    <row r="86" s="16" customFormat="1" spans="1:10">
       <c r="A86" s="16" t="s">
         <v>24</v>
       </c>
@@ -15976,8 +16233,11 @@
       <c r="I86" s="16">
         <v>-0.290999556869163</v>
       </c>
-    </row>
-    <row r="87" s="16" customFormat="1" spans="1:9">
+      <c r="J86" s="16">
+        <v>0.0434824850800386</v>
+      </c>
+    </row>
+    <row r="87" s="16" customFormat="1" spans="1:10">
       <c r="A87" s="16" t="s">
         <v>24</v>
       </c>
@@ -16005,8 +16265,11 @@
       <c r="I87" s="16">
         <v>0.218199731818151</v>
       </c>
-    </row>
-    <row r="88" s="16" customFormat="1" spans="1:9">
+      <c r="J87" s="16">
+        <v>0.248034992078371</v>
+      </c>
+    </row>
+    <row r="88" s="16" customFormat="1" spans="1:10">
       <c r="A88" s="16" t="s">
         <v>24</v>
       </c>
@@ -16034,8 +16297,11 @@
       <c r="I88" s="16">
         <v>-0.22662599558152</v>
       </c>
-    </row>
-    <row r="89" s="16" customFormat="1" spans="1:9">
+      <c r="J88" s="16">
+        <v>-0.242660731004511</v>
+      </c>
+    </row>
+    <row r="89" s="16" customFormat="1" spans="1:10">
       <c r="A89" s="16" t="s">
         <v>24</v>
       </c>
@@ -16063,8 +16329,11 @@
       <c r="I89" s="16">
         <v>0.270812355902459</v>
       </c>
-    </row>
-    <row r="90" s="16" customFormat="1" spans="1:9">
+      <c r="J89" s="16">
+        <v>0.0601363587663826</v>
+      </c>
+    </row>
+    <row r="90" s="16" customFormat="1" spans="1:10">
       <c r="A90" s="16" t="s">
         <v>24</v>
       </c>
@@ -16092,8 +16361,11 @@
       <c r="I90" s="16">
         <v>-0.182731750830527</v>
       </c>
-    </row>
-    <row r="91" s="16" customFormat="1" spans="1:9">
+      <c r="J90" s="16">
+        <v>0.218966820562996</v>
+      </c>
+    </row>
+    <row r="91" s="16" customFormat="1" spans="1:10">
       <c r="A91" s="16" t="s">
         <v>26</v>
       </c>
@@ -16121,8 +16393,11 @@
       <c r="I91" s="16">
         <v>-0.0761432135871224</v>
       </c>
-    </row>
-    <row r="92" s="16" customFormat="1" spans="1:9">
+      <c r="J91" s="16">
+        <v>0.42066863384862</v>
+      </c>
+    </row>
+    <row r="92" s="16" customFormat="1" spans="1:10">
       <c r="A92" s="16" t="s">
         <v>26</v>
       </c>
@@ -16150,8 +16425,11 @@
       <c r="I92" s="16">
         <v>-0.0111631518662739</v>
       </c>
-    </row>
-    <row r="93" s="16" customFormat="1" spans="1:9">
+      <c r="J92" s="16">
+        <v>0.247256024037805</v>
+      </c>
+    </row>
+    <row r="93" s="16" customFormat="1" spans="1:10">
       <c r="A93" s="16" t="s">
         <v>26</v>
       </c>
@@ -16179,8 +16457,11 @@
       <c r="I93" s="16">
         <v>0.123506119931471</v>
       </c>
-    </row>
-    <row r="94" s="16" customFormat="1" spans="1:9">
+      <c r="J93" s="16">
+        <v>0.101155446902924</v>
+      </c>
+    </row>
+    <row r="94" s="16" customFormat="1" spans="1:10">
       <c r="A94" s="16" t="s">
         <v>26</v>
       </c>
@@ -16208,8 +16489,11 @@
       <c r="I94" s="16">
         <v>-0.109247702117235</v>
       </c>
-    </row>
-    <row r="95" s="16" customFormat="1" spans="1:9">
+      <c r="J94" s="16">
+        <v>0.244935146298808</v>
+      </c>
+    </row>
+    <row r="95" s="16" customFormat="1" spans="1:10">
       <c r="A95" s="16" t="s">
         <v>26</v>
       </c>
@@ -16237,8 +16521,11 @@
       <c r="I95" s="16">
         <v>0.958969929946217</v>
       </c>
-    </row>
-    <row r="96" s="16" customFormat="1" spans="1:9">
+      <c r="J95" s="16">
+        <v>1.87054000610639</v>
+      </c>
+    </row>
+    <row r="96" s="16" customFormat="1" spans="1:10">
       <c r="A96" s="16" t="s">
         <v>26</v>
       </c>
@@ -16266,8 +16553,11 @@
       <c r="I96" s="16">
         <v>0.0298750029357009</v>
       </c>
-    </row>
-    <row r="97" s="16" customFormat="1" spans="1:9">
+      <c r="J96" s="16">
+        <v>-0.0618952554923849</v>
+      </c>
+    </row>
+    <row r="97" s="16" customFormat="1" spans="1:10">
       <c r="A97" s="16" t="s">
         <v>26</v>
       </c>
@@ -16295,8 +16585,11 @@
       <c r="I97" s="16">
         <v>0.0756056102548257</v>
       </c>
-    </row>
-    <row r="98" s="16" customFormat="1" spans="1:9">
+      <c r="J97" s="16">
+        <v>-0.0687236696310409</v>
+      </c>
+    </row>
+    <row r="98" s="16" customFormat="1" spans="1:10">
       <c r="A98" s="16" t="s">
         <v>31</v>
       </c>
@@ -16324,8 +16617,11 @@
       <c r="I98" s="16">
         <v>-0.252636736466182</v>
       </c>
-    </row>
-    <row r="99" s="16" customFormat="1" spans="1:9">
+      <c r="J98" s="16">
+        <v>0.209850335488374</v>
+      </c>
+    </row>
+    <row r="99" s="16" customFormat="1" spans="1:10">
       <c r="A99" s="16" t="s">
         <v>31</v>
       </c>
@@ -16353,8 +16649,11 @@
       <c r="I99" s="16">
         <v>-0.193853868759576</v>
       </c>
-    </row>
-    <row r="100" s="16" customFormat="1" spans="1:9">
+      <c r="J99" s="16">
+        <v>0.104168194503357</v>
+      </c>
+    </row>
+    <row r="100" s="16" customFormat="1" spans="1:10">
       <c r="A100" s="16" t="s">
         <v>31</v>
       </c>
@@ -16382,8 +16681,11 @@
       <c r="I100" s="16">
         <v>-0.268155222407093</v>
       </c>
-    </row>
-    <row r="101" s="16" customFormat="1" spans="1:9">
+      <c r="J100" s="16">
+        <v>-0.124725000195752</v>
+      </c>
+    </row>
+    <row r="101" s="16" customFormat="1" spans="1:10">
       <c r="A101" s="16" t="s">
         <v>31</v>
       </c>
@@ -16411,8 +16713,11 @@
       <c r="I101" s="16">
         <v>-0.812403791713646</v>
       </c>
-    </row>
-    <row r="102" s="16" customFormat="1" spans="1:9">
+      <c r="J101" s="16">
+        <v>1.28063390359553</v>
+      </c>
+    </row>
+    <row r="102" s="16" customFormat="1" spans="1:10">
       <c r="A102" s="16" t="s">
         <v>31</v>
       </c>
@@ -16440,8 +16745,11 @@
       <c r="I102" s="16">
         <v>0.0932688151727628</v>
       </c>
-    </row>
-    <row r="103" s="16" customFormat="1" spans="1:9">
+      <c r="J102" s="16">
+        <v>-0.316765971355131</v>
+      </c>
+    </row>
+    <row r="103" s="16" customFormat="1" spans="1:10">
       <c r="A103" s="16" t="s">
         <v>31</v>
       </c>
@@ -16469,8 +16777,11 @@
       <c r="I103" s="16">
         <v>0.0533710789502492</v>
       </c>
-    </row>
-    <row r="104" s="16" customFormat="1" spans="1:9">
+      <c r="J103" s="16">
+        <v>0.0239231375544211</v>
+      </c>
+    </row>
+    <row r="104" s="16" customFormat="1" spans="1:10">
       <c r="A104" s="16" t="s">
         <v>31</v>
       </c>
@@ -16498,8 +16809,11 @@
       <c r="I104" s="16">
         <v>0.251026127919078</v>
       </c>
-    </row>
-    <row r="105" s="16" customFormat="1" spans="1:9">
+      <c r="J104" s="16">
+        <v>0.0288813014661578</v>
+      </c>
+    </row>
+    <row r="105" s="16" customFormat="1" spans="1:10">
       <c r="A105" s="16" t="s">
         <v>28</v>
       </c>
@@ -16527,8 +16841,11 @@
       <c r="I105" s="16">
         <v>-0.134661249951913</v>
       </c>
-    </row>
-    <row r="106" s="16" customFormat="1" spans="1:9">
+      <c r="J105" s="16">
+        <v>0.15495231737376</v>
+      </c>
+    </row>
+    <row r="106" s="16" customFormat="1" spans="1:10">
       <c r="A106" s="16" t="s">
         <v>28</v>
       </c>
@@ -16556,8 +16873,11 @@
       <c r="I106" s="16">
         <v>-0.160817960838463</v>
       </c>
-    </row>
-    <row r="107" s="16" customFormat="1" spans="1:9">
+      <c r="J106" s="16">
+        <v>0.127128867577141</v>
+      </c>
+    </row>
+    <row r="107" s="16" customFormat="1" spans="1:10">
       <c r="A107" s="16" t="s">
         <v>28</v>
       </c>
@@ -16585,8 +16905,11 @@
       <c r="I107" s="16">
         <v>-0.130007333769699</v>
       </c>
-    </row>
-    <row r="108" s="16" customFormat="1" spans="1:9">
+      <c r="J107" s="16">
+        <v>0.11499928052224</v>
+      </c>
+    </row>
+    <row r="108" s="16" customFormat="1" spans="1:10">
       <c r="A108" s="16" t="s">
         <v>28</v>
       </c>
@@ -16614,8 +16937,11 @@
       <c r="I108" s="16">
         <v>-0.11775057103887</v>
       </c>
-    </row>
-    <row r="109" s="16" customFormat="1" spans="1:9">
+      <c r="J108" s="16">
+        <v>-0.203516879751877</v>
+      </c>
+    </row>
+    <row r="109" s="16" customFormat="1" spans="1:10">
       <c r="A109" s="16" t="s">
         <v>28</v>
       </c>
@@ -16643,8 +16969,11 @@
       <c r="I109" s="16">
         <v>0.000497460251299051</v>
       </c>
-    </row>
-    <row r="110" s="16" customFormat="1" spans="1:9">
+      <c r="J109" s="16">
+        <v>0.528227315969695</v>
+      </c>
+    </row>
+    <row r="110" s="16" customFormat="1" spans="1:10">
       <c r="A110" s="16" t="s">
         <v>28</v>
       </c>
@@ -16672,8 +17001,11 @@
       <c r="I110" s="16">
         <v>-0.291756322615363</v>
       </c>
-    </row>
-    <row r="111" s="16" customFormat="1" spans="1:9">
+      <c r="J110" s="16">
+        <v>-0.315845015623217</v>
+      </c>
+    </row>
+    <row r="111" s="16" customFormat="1" spans="1:10">
       <c r="A111" s="16" t="s">
         <v>28</v>
       </c>
@@ -16701,8 +17033,14 @@
       <c r="I111" s="16">
         <v>-0.262033617289439</v>
       </c>
+      <c r="J111" s="16">
+        <v>-0.030596272852512</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J111">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
